--- a/va_facility_data_2025-02-20/Rocky Mountain Regional VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Rocky%20Mountain%20Regional%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rocky Mountain Regional VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Rocky%20Mountain%20Regional%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rb00d3cac1dbc478abda58a1968ee46db"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R3e046324719b4853a15b7a19b6225761"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7f1d21814bd14f6faf46705a3b727855"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R5f2e69fc804d4f8494bd63e30981f5ea"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R05ec044bed8f47e19f4fe1a216eff0a7"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R63532aef4e4c44a39c94135caf66eb29"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rddc4c2c1c8524f8a8fe3009d990ac9a1"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rc6d15e921bac4b48bc00d8dae756be48"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R443c1ea879ef451bbd7888a91c4c7172"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R110e45ebf6994048bf656521d1c43457"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf77eaa14e84344bfb8d6c6b2d422cbe9"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Red210e9f35994c7c994a64f1334aef71"/>
   </x:sheets>
 </x:workbook>
 </file>
